--- a/output/OCEANA_19496576000110.xlsx
+++ b/output/OCEANA_19496576000110.xlsx
@@ -1285,10 +1285,10 @@
         <v>44165</v>
       </c>
       <c r="B82">
-        <v>1.69785976</v>
+        <v>1.67804499</v>
       </c>
       <c r="C82">
-        <v>0.07197076446288286</v>
+        <v>0.06409754048753591</v>
       </c>
     </row>
   </sheetData>

--- a/output/OCEANA_19496576000110.xlsx
+++ b/output/OCEANA_19496576000110.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>OCEANA LONG BIASED FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,909 +383,666 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41729</v>
       </c>
       <c r="B2">
-        <v>0.04045140999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41759</v>
       </c>
       <c r="B3">
-        <v>0.05244994000000003</v>
-      </c>
-      <c r="C3">
         <v>0.0115320426160026</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41790</v>
       </c>
       <c r="B4">
-        <v>0.06187360999999991</v>
-      </c>
-      <c r="C4">
         <v>0.008954031580827415</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41820</v>
       </c>
       <c r="B5">
-        <v>0.07701698000000001</v>
-      </c>
-      <c r="C5">
         <v>0.01426099100438138</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41851</v>
       </c>
       <c r="B6">
-        <v>0.09508935000000007</v>
-      </c>
-      <c r="C6">
         <v>0.01678002328245554</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41882</v>
       </c>
       <c r="B7">
-        <v>0.13155776</v>
-      </c>
-      <c r="C7">
         <v>0.0333017666549309</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41912</v>
       </c>
       <c r="B8">
-        <v>0.07941036999999995</v>
-      </c>
-      <c r="C8">
         <v>-0.04608460287524341</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41943</v>
       </c>
       <c r="B9">
-        <v>0.1110926800000001</v>
-      </c>
-      <c r="C9">
         <v>0.02935149678059901</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41973</v>
       </c>
       <c r="B10">
-        <v>0.1226282299999999</v>
-      </c>
-      <c r="C10">
         <v>0.01038216721938978</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42004</v>
       </c>
       <c r="B11">
-        <v>0.07674918999999991</v>
-      </c>
-      <c r="C11">
         <v>-0.04086752744494937</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42035</v>
       </c>
       <c r="B12">
-        <v>0.02734785999999989</v>
-      </c>
-      <c r="C12">
         <v>-0.04588007166274255</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42063</v>
       </c>
       <c r="B13">
-        <v>0.0884432799999999</v>
-      </c>
-      <c r="C13">
         <v>0.05946906824724385</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42094</v>
       </c>
       <c r="B14">
-        <v>0.1153450300000001</v>
-      </c>
-      <c r="C14">
         <v>0.02471580328926293</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42124</v>
       </c>
       <c r="B15">
-        <v>0.16490144</v>
-      </c>
-      <c r="C15">
         <v>0.04443146171548351</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42155</v>
       </c>
       <c r="B16">
-        <v>0.14529974</v>
-      </c>
-      <c r="C16">
         <v>-0.01682691713386497</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42185</v>
       </c>
       <c r="B17">
-        <v>0.15380368</v>
-      </c>
-      <c r="C17">
         <v>0.007425078084799086</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42216</v>
       </c>
       <c r="B18">
-        <v>0.1240678</v>
-      </c>
-      <c r="C18">
         <v>-0.02577204468614636</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42247</v>
       </c>
       <c r="B19">
-        <v>0.09279520000000008</v>
-      </c>
-      <c r="C19">
         <v>-0.02782091969897182</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42277</v>
       </c>
       <c r="B20">
-        <v>0.08068958000000004</v>
-      </c>
-      <c r="C20">
         <v>-0.01107766578769753</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42308</v>
       </c>
       <c r="B21">
-        <v>0.1157024799999999</v>
-      </c>
-      <c r="C21">
         <v>0.03239866530405511</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42338</v>
       </c>
       <c r="B22">
-        <v>0.1130328899999999</v>
-      </c>
-      <c r="C22">
         <v>-0.002392743628211735</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42369</v>
       </c>
       <c r="B23">
-        <v>0.11442675</v>
-      </c>
-      <c r="C23">
         <v>0.001252308006819192</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42400</v>
       </c>
       <c r="B24">
-        <v>0.08948076000000005</v>
-      </c>
-      <c r="C24">
         <v>-0.02238459369357382</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42429</v>
       </c>
       <c r="B25">
-        <v>0.13587036</v>
-      </c>
-      <c r="C25">
         <v>0.04257954954615251</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42460</v>
       </c>
       <c r="B26">
-        <v>0.2298227399999999</v>
-      </c>
-      <c r="C26">
         <v>0.08271399915743904</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42490</v>
       </c>
       <c r="B27">
-        <v>0.2919834100000001</v>
-      </c>
-      <c r="C27">
         <v>0.05054441422997291</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42521</v>
       </c>
       <c r="B28">
-        <v>0.3070440000000001</v>
-      </c>
-      <c r="C28">
         <v>0.01165695308734649</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42551</v>
       </c>
       <c r="B29">
-        <v>0.36429439</v>
-      </c>
-      <c r="C29">
         <v>0.04380142520068175</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42582</v>
       </c>
       <c r="B30">
-        <v>0.4411098</v>
-      </c>
-      <c r="C30">
         <v>0.05630413095812847</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42613</v>
       </c>
       <c r="B31">
-        <v>0.4589266999999999</v>
-      </c>
-      <c r="C31">
         <v>0.01236331888104569</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42643</v>
       </c>
       <c r="B32">
-        <v>0.47497316</v>
-      </c>
-      <c r="C32">
         <v>0.01099881166065453</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42674</v>
       </c>
       <c r="B33">
-        <v>0.5390789899999999</v>
-      </c>
-      <c r="C33">
         <v>0.0434623705288304</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42704</v>
       </c>
       <c r="B34">
-        <v>0.4984355600000001</v>
-      </c>
-      <c r="C34">
         <v>-0.02640763096896004</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42735</v>
       </c>
       <c r="B35">
-        <v>0.5127397499999999</v>
-      </c>
-      <c r="C35">
         <v>0.009546082849235082</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42766</v>
       </c>
       <c r="B36">
-        <v>0.5755180499999999</v>
-      </c>
-      <c r="C36">
         <v>0.04149973582699862</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42794</v>
       </c>
       <c r="B37">
-        <v>0.62591526</v>
-      </c>
-      <c r="C37">
         <v>0.03198770715448163</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42825</v>
       </c>
       <c r="B38">
-        <v>0.6594969500000001</v>
-      </c>
-      <c r="C38">
         <v>0.02065402227665913</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42855</v>
       </c>
       <c r="B39">
-        <v>0.6848284099999999</v>
-      </c>
-      <c r="C39">
         <v>0.01526454146239908</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42886</v>
       </c>
       <c r="B40">
-        <v>0.6953737499999999</v>
-      </c>
-      <c r="C40">
         <v>0.006258999395671427</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42916</v>
       </c>
       <c r="B41">
-        <v>0.72749569</v>
-      </c>
-      <c r="C41">
         <v>0.01894681924855801</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42947</v>
       </c>
       <c r="B42">
-        <v>0.77705738</v>
-      </c>
-      <c r="C42">
         <v>0.02868990660115633</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42978</v>
       </c>
       <c r="B43">
-        <v>0.83929828</v>
-      </c>
-      <c r="C43">
         <v>0.03502469908990768</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43008</v>
       </c>
       <c r="B44">
-        <v>0.87408471</v>
-      </c>
-      <c r="C44">
         <v>0.01891288127556989</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43039</v>
       </c>
       <c r="B45">
-        <v>0.8695909399999999</v>
-      </c>
-      <c r="C45">
         <v>-0.00239784785395325</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43069</v>
       </c>
       <c r="B46">
-        <v>0.84394196</v>
-      </c>
-      <c r="C46">
         <v>-0.01371903310571243</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43100</v>
       </c>
       <c r="B47">
-        <v>0.9112978599999999</v>
-      </c>
-      <c r="C47">
         <v>0.03652821046493226</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43131</v>
       </c>
       <c r="B48">
-        <v>1.00915053</v>
-      </c>
-      <c r="C48">
         <v>0.05119697565088055</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43159</v>
       </c>
       <c r="B49">
-        <v>1.00867162</v>
-      </c>
-      <c r="C49">
         <v>-0.0002383644196136681</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43190</v>
       </c>
       <c r="B50">
-        <v>0.9952922500000001</v>
-      </c>
-      <c r="C50">
         <v>-0.006660805015007765</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43220</v>
       </c>
       <c r="B51">
-        <v>0.99520404</v>
-      </c>
-      <c r="C51">
         <v>-4.420906260726998e-05</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43251</v>
       </c>
       <c r="B52">
-        <v>0.8921600000000001</v>
-      </c>
-      <c r="C52">
         <v>-0.05164586575315866</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43281</v>
       </c>
       <c r="B53">
-        <v>0.84020531</v>
-      </c>
-      <c r="C53">
         <v>-0.02745787354134965</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43312</v>
       </c>
       <c r="B54">
-        <v>0.93120081</v>
-      </c>
-      <c r="C54">
         <v>0.04944855854154673</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43343</v>
       </c>
       <c r="B55">
-        <v>0.8731426600000001</v>
-      </c>
-      <c r="C55">
         <v>-0.03006323821912638</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43373</v>
       </c>
       <c r="B56">
-        <v>0.8940528299999999</v>
-      </c>
-      <c r="C56">
         <v>0.01116314867336365</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43404</v>
       </c>
       <c r="B57">
-        <v>1.06511867</v>
-      </c>
-      <c r="C57">
         <v>0.09031735403072161</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43434</v>
       </c>
       <c r="B58">
-        <v>1.1544985</v>
-      </c>
-      <c r="C58">
         <v>0.04328072342690126</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43465</v>
       </c>
       <c r="B59">
-        <v>1.16658831</v>
-      </c>
-      <c r="C59">
         <v>0.005611426510624185</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43496</v>
       </c>
       <c r="B60">
-        <v>1.32568011</v>
-      </c>
-      <c r="C60">
         <v>0.07342964017007936</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43524</v>
       </c>
       <c r="B61">
-        <v>1.31637993</v>
-      </c>
-      <c r="C61">
         <v>-0.003998907657166928</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43555</v>
       </c>
       <c r="B62">
-        <v>1.32093249</v>
-      </c>
-      <c r="C62">
         <v>0.001965377070073382</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43585</v>
       </c>
       <c r="B63">
-        <v>1.38618305</v>
-      </c>
-      <c r="C63">
         <v>0.02811394139258216</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43616</v>
       </c>
       <c r="B64">
-        <v>1.42977435</v>
-      </c>
-      <c r="C64">
         <v>0.01826821291015368</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43646</v>
       </c>
       <c r="B65">
-        <v>1.507895</v>
-      </c>
-      <c r="C65">
         <v>0.03215140121962334</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43677</v>
       </c>
       <c r="B66">
-        <v>1.5415015</v>
-      </c>
-      <c r="C66">
         <v>0.01340028190972897</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43708</v>
       </c>
       <c r="B67">
-        <v>1.53135622</v>
-      </c>
-      <c r="C67">
         <v>-0.003991844978253889</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43738</v>
       </c>
       <c r="B68">
-        <v>1.57926225</v>
-      </c>
-      <c r="C68">
         <v>0.01892504485204372</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43769</v>
       </c>
       <c r="B69">
-        <v>1.61658007</v>
-      </c>
-      <c r="C69">
         <v>0.01446840855364728</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43799</v>
       </c>
       <c r="B70">
-        <v>1.63930646</v>
-      </c>
-      <c r="C70">
         <v>0.008685532027307596</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43830</v>
       </c>
       <c r="B71">
-        <v>1.81849056</v>
-      </c>
-      <c r="C71">
         <v>0.06789060032081307</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43861</v>
       </c>
       <c r="B72">
-        <v>1.83257826</v>
-      </c>
-      <c r="C72">
         <v>0.004998313707319957</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43890</v>
       </c>
       <c r="B73">
-        <v>1.70864029</v>
-      </c>
-      <c r="C73">
         <v>-0.0437544733538977</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43921</v>
       </c>
       <c r="B74">
-        <v>1.13493657</v>
-      </c>
-      <c r="C74">
         <v>-0.2118050603168131</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43951</v>
       </c>
       <c r="B75">
-        <v>1.34622964</v>
-      </c>
-      <c r="C75">
         <v>0.09896924947048902</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43982</v>
       </c>
       <c r="B76">
-        <v>1.43128959</v>
-      </c>
-      <c r="C76">
         <v>0.03625388945303754</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>44012</v>
       </c>
       <c r="B77">
-        <v>1.58396714</v>
-      </c>
-      <c r="C77">
         <v>0.06279694143715719</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>44043</v>
       </c>
       <c r="B78">
-        <v>1.69677165</v>
-      </c>
-      <c r="C78">
         <v>0.04365555128537757</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>44074</v>
       </c>
       <c r="B79">
-        <v>1.62429063</v>
-      </c>
-      <c r="C79">
         <v>-0.02687695860344719</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>44104</v>
       </c>
       <c r="B80">
-        <v>1.56711841</v>
-      </c>
-      <c r="C80">
         <v>-0.02178578063969994</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>44135</v>
       </c>
       <c r="B81">
-        <v>1.51672886</v>
-      </c>
-      <c r="C81">
         <v>-0.01962883745592392</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>44165</v>
       </c>
       <c r="B82">
-        <v>1.67804499</v>
-      </c>
-      <c r="C82">
-        <v>0.06409754048753591</v>
+        <v>0.04833873125291688</v>
       </c>
     </row>
   </sheetData>
